--- a/jQuriesHashes.xlsx
+++ b/jQuriesHashes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\betha\Desktop\ITProject\WebScrapingProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFF94A4-BCF9-4E5E-BEBC-4A5ACA62D4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C16DB56-A6A8-4A5B-B85E-B53E8AE6EBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43F96E42-6B24-4778-BAFC-94E64EB0B806}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43F96E42-6B24-4778-BAFC-94E64EB0B806}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="265">
   <si>
     <t xml:space="preserve">jQuery  1.12.4 </t>
   </si>
@@ -824,6 +824,12 @@
   </si>
   <si>
     <t>Vulnrable</t>
+  </si>
+  <si>
+    <t>ED6F1E08C8E01BC2E8C66FD0D304E35E919FB706157DA98285D41E75E4A8D44F</t>
+  </si>
+  <si>
+    <t>robert</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42B1EFF-DE36-4C11-99D4-0CBAD126C6DE}">
-  <dimension ref="A1:E227"/>
+  <dimension ref="A1:E228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1236,66 +1242,64 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="D2" s="7" t="str">
+      <c r="A2" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="5" t="str">
         <f>LOWER(C2)</f>
-        <v>1fe2bb5390a75e5d61e72c107cab528fc3c29a837d69aab7d200e1dbb5dcd239</v>
+        <v>ed6f1e08c8e01bc2e8c66fd0d304e35e919fb706157da98285d41e75e4a8d44f</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
-        <v>256</v>
+      <c r="C3" s="6" t="s">
+        <v>257</v>
       </c>
       <c r="D3" s="7" t="str">
-        <f t="shared" ref="D3:D62" si="0">LOWER(C3)</f>
-        <v>416a3b2c3bf16d64f6b5b6d0f7b079df2267614dd6847fc2f3271b4409233c37</v>
+        <f>LOWER(C3)</f>
+        <v>1fe2bb5390a75e5d61e72c107cab528fc3c29a837d69aab7d200e1dbb5dcd239</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>aff01a147aeccc9b70a5efad1f2362fd709f3316296ec460d94aa7d31decdb37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>108</v>
+        <f t="shared" ref="D4:D63" si="0">LOWER(C4)</f>
+        <v>416a3b2c3bf16d64f6b5b6d0f7b079df2267614dd6847fc2f3271b4409233c37</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>5a93a88493aa32aab228bf4571c01207d3b42b0002409a454d404b4d8395bd55</v>
+        <v>aff01a147aeccc9b70a5efad1f2362fd709f3316296ec460d94aa7d31decdb37</v>
       </c>
       <c r="E5" t="s">
         <v>108</v>
@@ -1303,17 +1307,17 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>0d864c082f074c2f900ebe5035a21c7d1ed548fb5c212ca477ee9e4a6056e6aa</v>
+        <v>5a93a88493aa32aab228bf4571c01207d3b42b0002409a454d404b4d8395bd55</v>
       </c>
       <c r="E6" t="s">
         <v>108</v>
@@ -1321,17 +1325,17 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D7" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>d8aa24ecc6cecb1a60515bc093f1c9da38a0392612d9ab8ae0f7f36e6eee1fad</v>
+        <v>0d864c082f074c2f900ebe5035a21c7d1ed548fb5c212ca477ee9e4a6056e6aa</v>
       </c>
       <c r="E7" t="s">
         <v>108</v>
@@ -1339,17 +1343,17 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D8" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>4c5592b8326dea44be86e57ebd59725758ccdddc0675e356a9ece14f15c1fd7f</v>
+        <v>d8aa24ecc6cecb1a60515bc093f1c9da38a0392612d9ab8ae0f7f36e6eee1fad</v>
       </c>
       <c r="E8" t="s">
         <v>108</v>
@@ -1357,17 +1361,17 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D9" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>0d9027289ffa5d9f6c8b4e0782bb31bbff2cef5ee3708ccbcb7a22df9128bb21</v>
+        <v>4c5592b8326dea44be86e57ebd59725758ccdddc0675e356a9ece14f15c1fd7f</v>
       </c>
       <c r="E9" t="s">
         <v>108</v>
@@ -1375,17 +1379,17 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>c0f149348165558e3d07e0ae008ac3afddf65d26fa264dc9d4cdb6337136ca54</v>
+        <v>0d9027289ffa5d9f6c8b4e0782bb31bbff2cef5ee3708ccbcb7a22df9128bb21</v>
       </c>
       <c r="E10" t="s">
         <v>108</v>
@@ -1393,17 +1397,17 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B11" t="s">
         <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>d7a71d3dd740e95755227ba6446a3a21b8af6c4444f29ec2411dc7cd306e10b0</v>
+        <v>c0f149348165558e3d07e0ae008ac3afddf65d26fa264dc9d4cdb6337136ca54</v>
       </c>
       <c r="E11" t="s">
         <v>108</v>
@@ -1411,17 +1415,17 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>b25a2092f0752b754e933008f10213c55dd5ce93a791e355b0abed9182cc8df9</v>
+        <v>d7a71d3dd740e95755227ba6446a3a21b8af6c4444f29ec2411dc7cd306e10b0</v>
       </c>
       <c r="E12" t="s">
         <v>108</v>
@@ -1429,17 +1433,17 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B13" t="s">
         <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>8eb3cb67ef2f0f1b76167135cef6570a409c79b23f0bc0ede71c9a4018f1408a</v>
+        <v>b25a2092f0752b754e933008f10213c55dd5ce93a791e355b0abed9182cc8df9</v>
       </c>
       <c r="E13" t="s">
         <v>108</v>
@@ -1447,65 +1451,65 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>ff1523fb7389539c84c65aba19260648793bb4f5e29329d2ee8804bc37a3fe6e</v>
+        <v>8eb3cb67ef2f0f1b76167135cef6570a409c79b23f0bc0ede71c9a4018f1408a</v>
+      </c>
+      <c r="E14" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="B15" t="s">
         <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>f7f6a5894f1d19ddad6fa392b2ece2c5e578cbf7da4ea805b6885eb6985b6e3d</v>
+        <v>ff1523fb7389539c84c65aba19260648793bb4f5e29329d2ee8804bc37a3fe6e</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s">
         <v>109</v>
       </c>
       <c r="C16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D16" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>c4dccdd9ae25b64078e0c73f273de94f8894d5c99e4741645ece29aeefc9c5a4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>108</v>
+        <v>f7f6a5894f1d19ddad6fa392b2ece2c5e578cbf7da4ea805b6885eb6985b6e3d</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s">
         <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>0925e8ad7bd971391a8b1e98be8e87a6971919eb5b60c196485941c3c1df089a</v>
+        <v>c4dccdd9ae25b64078e0c73f273de94f8894d5c99e4741645ece29aeefc9c5a4</v>
       </c>
       <c r="E17" t="s">
         <v>108</v>
@@ -1513,17 +1517,17 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s">
         <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>0497a8d2a9bde7db8c0466fae73e347a3258192811ed1108e3e096d5f34ac0e8</v>
+        <v>0925e8ad7bd971391a8b1e98be8e87a6971919eb5b60c196485941c3c1df089a</v>
       </c>
       <c r="E18" t="s">
         <v>108</v>
@@ -1531,17 +1535,17 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s">
         <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D19" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>160a426ff2894252cd7cebbdd6d6b7da8fcd319c65b70468f10b6690c45d02ef</v>
+        <v>0497a8d2a9bde7db8c0466fae73e347a3258192811ed1108e3e096d5f34ac0e8</v>
       </c>
       <c r="E19" t="s">
         <v>108</v>
@@ -1549,17 +1553,17 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s">
         <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D20" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>453432f153a63654fa6f63c846eaf7ee9e8910165413ba3cc0f80cbeed7c302e</v>
+        <v>160a426ff2894252cd7cebbdd6d6b7da8fcd319c65b70468f10b6690c45d02ef</v>
       </c>
       <c r="E20" t="s">
         <v>108</v>
@@ -1567,17 +1571,17 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s">
         <v>109</v>
       </c>
       <c r="C21" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D21" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>87083882cc6015984eb0411a99d3981817f5dc5c90ba24f0940420c5548d82de</v>
+        <v>453432f153a63654fa6f63c846eaf7ee9e8910165413ba3cc0f80cbeed7c302e</v>
       </c>
       <c r="E21" t="s">
         <v>108</v>
@@ -1585,17 +1589,17 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s">
         <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D22" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>2405bdf4c255a4904671bcc4b97938033d39b3f5f20dd068985a8d94cde273e2</v>
+        <v>87083882cc6015984eb0411a99d3981817f5dc5c90ba24f0940420c5548d82de</v>
       </c>
       <c r="E22" t="s">
         <v>108</v>
@@ -1603,17 +1607,17 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s">
         <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D23" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>85556761a8800d14ced8fcd41a6b8b26bf012d44a318866c0d81a62092efd9bf</v>
+        <v>2405bdf4c255a4904671bcc4b97938033d39b3f5f20dd068985a8d94cde273e2</v>
       </c>
       <c r="E23" t="s">
         <v>108</v>
@@ -1621,17 +1625,17 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B24" t="s">
         <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D24" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>702b9e051e82b32038ffdb33a4f7eb5f7b38f4cf6f514e4182d8898f4eb0b7fb</v>
+        <v>85556761a8800d14ced8fcd41a6b8b26bf012d44a318866c0d81a62092efd9bf</v>
       </c>
       <c r="E24" t="s">
         <v>108</v>
@@ -1639,17 +1643,17 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B25" t="s">
         <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D25" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>266bcea0bb58b26aa5b16c5aee60d22ccc1ae9d67daeb21db6bad56119c3447d</v>
+        <v>702b9e051e82b32038ffdb33a4f7eb5f7b38f4cf6f514e4182d8898f4eb0b7fb</v>
       </c>
       <c r="E25" t="s">
         <v>108</v>
@@ -1657,395 +1661,395 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D26" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>1f058e34466ba6ea21f79d5c403d68bf61d42b9cc0e43c09d433545da33a16c6</v>
+        <v>266bcea0bb58b26aa5b16c5aee60d22ccc1ae9d67daeb21db6bad56119c3447d</v>
+      </c>
+      <c r="E26" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="B27" t="s">
         <v>208</v>
       </c>
       <c r="C27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D27" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>0eb4f935fc5f6c7bcc1eec77d4b921c60e362d8ea87fc4da6322b9d239f14673</v>
+        <v>1f058e34466ba6ea21f79d5c403d68bf61d42b9cc0e43c09d433545da33a16c6</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B28" t="s">
         <v>208</v>
       </c>
       <c r="C28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D28" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>b027b185a2a901fbaaba52a3b5263b57d1fb413d1308df741fe6393659aa3941</v>
+        <v>0eb4f935fc5f6c7bcc1eec77d4b921c60e362d8ea87fc4da6322b9d239f14673</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B29" t="s">
         <v>208</v>
       </c>
       <c r="C29" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D29" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>0539537503bdfdf6ac701d5dade92b0d591a29df4f93007298c9473a21bea8b2</v>
+        <v>b027b185a2a901fbaaba52a3b5263b57d1fb413d1308df741fe6393659aa3941</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B30" t="s">
         <v>208</v>
       </c>
       <c r="C30" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D30" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>9a295ecf1e656a4ad9bb438ff5bd90585cb57edfd41142ba347d49ab3f215214</v>
+        <v>0539537503bdfdf6ac701d5dade92b0d591a29df4f93007298c9473a21bea8b2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B31" t="s">
         <v>208</v>
       </c>
       <c r="C31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D31" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>7cd5c914895c6b4e4120ed98e73875c6b4a12b7304fbf9586748fe0a1c57d830</v>
+        <v>9a295ecf1e656a4ad9bb438ff5bd90585cb57edfd41142ba347d49ab3f215214</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B32" t="s">
         <v>208</v>
       </c>
       <c r="C32" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D32" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>ec89a3d1f2cab57e4d144092d6e9a8429ecd0b594482be270536ac366ee004b6</v>
+        <v>7cd5c914895c6b4e4120ed98e73875c6b4a12b7304fbf9586748fe0a1c57d830</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B33" t="s">
         <v>208</v>
       </c>
       <c r="C33" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D33" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>b40f32d17aa2c27a7098e225dd218070597646fc478c0f2aa74fb5b821a64668</v>
+        <v>ec89a3d1f2cab57e4d144092d6e9a8429ecd0b594482be270536ac366ee004b6</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B34" t="s">
         <v>208</v>
       </c>
       <c r="C34" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D34" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>f18ac10930e84233b80814f5595bcc1f6ffad74047d038d997114e08880aec03</v>
+        <v>b40f32d17aa2c27a7098e225dd218070597646fc478c0f2aa74fb5b821a64668</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B35" t="s">
         <v>208</v>
       </c>
       <c r="C35" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D35" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>e62fe6437d3433befd3763950eb975ea56e88705cd51dccbfd1d9a5545f25d60</v>
+        <v>f18ac10930e84233b80814f5595bcc1f6ffad74047d038d997114e08880aec03</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B36" t="s">
         <v>208</v>
       </c>
       <c r="C36" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D36" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>2faa690232fa8e0b5199f8ae8a0784139030348da91ff5fd2016cfc9a9c9799c</v>
+        <v>e62fe6437d3433befd3763950eb975ea56e88705cd51dccbfd1d9a5545f25d60</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B37" t="s">
         <v>208</v>
       </c>
       <c r="C37" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D37" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>1a9ea1a741fe03b6b1835b44ac2b9c59e39cdfc8abb64556a546c16528fc2828</v>
+        <v>2faa690232fa8e0b5199f8ae8a0784139030348da91ff5fd2016cfc9a9c9799c</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C38" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D38" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>bbb7b9921ca2b61948753a6edb63c78443663dc45d1621d18e102e1dcb34e512</v>
+        <v>1a9ea1a741fe03b6b1835b44ac2b9c59e39cdfc8abb64556a546c16528fc2828</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="B39" t="s">
         <v>209</v>
       </c>
       <c r="C39" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D39" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>e3e5f35d586c0e6a9a9d7187687be087580c40a5f8d0e52f0c4053bbc25c98db</v>
+        <v>bbb7b9921ca2b61948753a6edb63c78443663dc45d1621d18e102e1dcb34e512</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B40" t="s">
         <v>209</v>
       </c>
       <c r="C40" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D40" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>325bac0cb2483f519180bace7e5510b6c8723f44f04ff4475ec235c161a7421b</v>
+        <v>e3e5f35d586c0e6a9a9d7187687be087580c40a5f8d0e52f0c4053bbc25c98db</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B41" t="s">
         <v>209</v>
       </c>
       <c r="C41" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D41" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>a5ab2a00a0439854f8787a0dda775dea5377ef4905886505c938941d6854ee4f</v>
+        <v>325bac0cb2483f519180bace7e5510b6c8723f44f04ff4475ec235c161a7421b</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B42" t="s">
         <v>209</v>
       </c>
       <c r="C42" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D42" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>65a5e76241c6a8886a4db27a301e25f45aecfebed4e23971ee2afc3c9601a9b2</v>
+        <v>a5ab2a00a0439854f8787a0dda775dea5377ef4905886505c938941d6854ee4f</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B43" t="s">
         <v>209</v>
       </c>
       <c r="C43" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D43" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>dde76b9b2b90d30eb97fc81f06caa8c338c97b688cea7d2729c88f529f32fbb1</v>
+        <v>65a5e76241c6a8886a4db27a301e25f45aecfebed4e23971ee2afc3c9601a9b2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B44" t="s">
         <v>209</v>
       </c>
       <c r="C44" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D44" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>00c83723bc9aefa38b3c3f4cf8c93b92aac0dbd1d49ff16e1817d3ffd51ff65b</v>
+        <v>dde76b9b2b90d30eb97fc81f06caa8c338c97b688cea7d2729c88f529f32fbb1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B45" t="s">
         <v>209</v>
       </c>
       <c r="C45" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D45" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>9365920887b11b33a3dc4ba28a0f93951f200341263e3b9cefd384798e4be398</v>
+        <v>00c83723bc9aefa38b3c3f4cf8c93b92aac0dbd1d49ff16e1817d3ffd51ff65b</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B46" t="s">
         <v>209</v>
       </c>
       <c r="C46" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D46" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>a8b02fd240408a170764b2377efdd621329e46c517dbb85deaea4105ad0c4a8c</v>
+        <v>9365920887b11b33a3dc4ba28a0f93951f200341263e3b9cefd384798e4be398</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B47" t="s">
         <v>209</v>
       </c>
       <c r="C47" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D47" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>fd222b36abfc87a406283b8da0b180e22adeb7e9327ac0a41c6cd5514574b217</v>
+        <v>a8b02fd240408a170764b2377efdd621329e46c517dbb85deaea4105ad0c4a8c</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B48" t="s">
         <v>209</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>211</v>
+      <c r="C48" t="s">
+        <v>212</v>
       </c>
       <c r="D48" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>711a568e848ec3929cc8839a64da388ba7d9f6d28f85861bea2e53f51495246f</v>
+        <v>fd222b36abfc87a406283b8da0b180e22adeb7e9327ac0a41c6cd5514574b217</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B49" t="s">
         <v>209</v>
       </c>
-      <c r="C49" t="s">
-        <v>210</v>
+      <c r="C49" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="D49" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>45fe0169d7f20adb2f1e63bcf4151971b62f34dbd9bce4f4f002df133bc2b03d</v>
+        <v>711a568e848ec3929cc8839a64da388ba7d9f6d28f85861bea2e53f51495246f</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>209</v>
       </c>
       <c r="C50" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="D50" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>893e90f6230962e42231635df650f20544ad22affc3ee396df768eaa6bc5a6a2</v>
-      </c>
-      <c r="E50" t="s">
-        <v>108</v>
+        <v>45fe0169d7f20adb2f1e63bcf4151971b62f34dbd9bce4f4f002df133bc2b03d</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B51" t="s">
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D51" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>95a5d6b46c9da70a89f0903e5fdc769a2c266a22a19fcb5598e5448a044db4fe</v>
+        <v>893e90f6230962e42231635df650f20544ad22affc3ee396df768eaa6bc5a6a2</v>
       </c>
       <c r="E51" t="s">
         <v>108</v>
@@ -2053,17 +2057,17 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B52" t="s">
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D52" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>e3fcd40aa8aad24ab1859232a781b41a4f803ad089b18d53034d24e4296c6581</v>
+        <v>95a5d6b46c9da70a89f0903e5fdc769a2c266a22a19fcb5598e5448a044db4fe</v>
       </c>
       <c r="E52" t="s">
         <v>108</v>
@@ -2071,17 +2075,17 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D53" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>78d714ccede3b2fd179492ef7851246c1f1b03bfc2ae83693559375e99a7c077</v>
+        <v>e3fcd40aa8aad24ab1859232a781b41a4f803ad089b18d53034d24e4296c6581</v>
       </c>
       <c r="E53" t="s">
         <v>108</v>
@@ -2089,17 +2093,17 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B54" t="s">
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D54" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>a18aa92dea997bd71eb540d5f931620591e9dee27e5f817978bb385bab924d21</v>
+        <v>78d714ccede3b2fd179492ef7851246c1f1b03bfc2ae83693559375e99a7c077</v>
       </c>
       <c r="E54" t="s">
         <v>108</v>
@@ -2107,17 +2111,17 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B55" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>190</v>
+      <c r="C55" t="s">
+        <v>191</v>
       </c>
       <c r="D55" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>b2215cce5830e2350b9d420271d9bd82340f664c3f60f0ea850f7e9c0392704e</v>
+        <v>a18aa92dea997bd71eb540d5f931620591e9dee27e5f817978bb385bab924d21</v>
       </c>
       <c r="E55" t="s">
         <v>108</v>
@@ -2125,17 +2129,17 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
       </c>
-      <c r="C56" t="s">
-        <v>189</v>
+      <c r="C56" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="D56" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>828cbbcacb430f9c5b5d27fe9302f8795eb338f2421010f5141882125226f94f</v>
+        <v>b2215cce5830e2350b9d420271d9bd82340f664c3f60f0ea850f7e9c0392704e</v>
       </c>
       <c r="E56" t="s">
         <v>108</v>
@@ -2143,17 +2147,17 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B57" t="s">
         <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D57" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>07cb07bdfba40ceff869b329eb48eeede41740ba6ce833dd3830bd0af49e4898</v>
+        <v>828cbbcacb430f9c5b5d27fe9302f8795eb338f2421010f5141882125226f94f</v>
       </c>
       <c r="E57" t="s">
         <v>108</v>
@@ -2161,17 +2165,17 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B58" t="s">
         <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D58" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>140ff438eaaede046f1ceba27579d16dc980595709391873fa9bf74d7dbe53ac</v>
+        <v>07cb07bdfba40ceff869b329eb48eeede41740ba6ce833dd3830bd0af49e4898</v>
       </c>
       <c r="E58" t="s">
         <v>108</v>
@@ -2179,17 +2183,17 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B59" t="s">
         <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D59" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>0fa7752926a95e3ab6b5f67a21ef40628ce4447c81ddf4f6cacf663b6fb85af7</v>
+        <v>140ff438eaaede046f1ceba27579d16dc980595709391873fa9bf74d7dbe53ac</v>
       </c>
       <c r="E59" t="s">
         <v>108</v>
@@ -2197,17 +2201,17 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B60" t="s">
         <v>54</v>
       </c>
       <c r="C60" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D60" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>9427fe2df51f7d4c6bf35f96d19169714d0b432b99dc18f41760d0342c538122</v>
+        <v>0fa7752926a95e3ab6b5f67a21ef40628ce4447c81ddf4f6cacf663b6fb85af7</v>
       </c>
       <c r="E60" t="s">
         <v>108</v>
@@ -2215,17 +2219,17 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B61" t="s">
         <v>54</v>
       </c>
       <c r="C61" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>d2ed0720108a75db0d53248ba8e36332658064c4189714d16c0f117efb42016d</v>
+        <v>9427fe2df51f7d4c6bf35f96d19169714d0b432b99dc18f41760d0342c538122</v>
       </c>
       <c r="E61" t="s">
         <v>108</v>
@@ -2233,17 +2237,17 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B62" t="s">
         <v>54</v>
       </c>
       <c r="C62" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>820fb338fe8c7478a1b820e2708b4fd306a68825de1194803e7a93fbc2177a16</v>
+        <v>d2ed0720108a75db0d53248ba8e36332658064c4189714d16c0f117efb42016d</v>
       </c>
       <c r="E62" t="s">
         <v>108</v>
@@ -2251,17 +2255,17 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B63" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>182</v>
+      <c r="C63" t="s">
+        <v>183</v>
       </c>
       <c r="D63" s="7" t="str">
-        <f t="shared" ref="D63:D124" si="1">LOWER(C63)</f>
-        <v>896e379d334cf0b16c78d9962a1579147156d4a72355032fce0de5f673d4e287</v>
+        <f t="shared" si="0"/>
+        <v>820fb338fe8c7478a1b820e2708b4fd306a68825de1194803e7a93fbc2177a16</v>
       </c>
       <c r="E63" t="s">
         <v>108</v>
@@ -2269,17 +2273,17 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B64" t="s">
-        <v>109</v>
-      </c>
-      <c r="C64" t="s">
-        <v>181</v>
+        <v>54</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="D64" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>05b85d96f41fff14d8f608dad03ab71e2c1017c2da0914d7c59291bad7a54f8e</v>
+        <f t="shared" ref="D64:D125" si="1">LOWER(C64)</f>
+        <v>896e379d334cf0b16c78d9962a1579147156d4a72355032fce0de5f673d4e287</v>
       </c>
       <c r="E64" t="s">
         <v>108</v>
@@ -2287,17 +2291,17 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B65" t="s">
         <v>109</v>
       </c>
       <c r="C65" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D65" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>6b6de0d4db7876d1183a3edb47ebd3bbbf93f153f5de1ba6645049348628109a</v>
+        <v>05b85d96f41fff14d8f608dad03ab71e2c1017c2da0914d7c59291bad7a54f8e</v>
       </c>
       <c r="E65" t="s">
         <v>108</v>
@@ -2305,17 +2309,17 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B66" t="s">
         <v>109</v>
       </c>
       <c r="C66" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D66" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>dfa729d82a3effadab1000181cb99108f232721e3b0af74cfae4c12704b35a32</v>
+        <v>6b6de0d4db7876d1183a3edb47ebd3bbbf93f153f5de1ba6645049348628109a</v>
       </c>
       <c r="E66" t="s">
         <v>108</v>
@@ -2323,17 +2327,17 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B67" t="s">
         <v>109</v>
       </c>
       <c r="C67" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D67" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>82f420005cd31fab6b4ab016a07d623e8f5773de90c526777de5ba91e9be3b4d</v>
+        <v>dfa729d82a3effadab1000181cb99108f232721e3b0af74cfae4c12704b35a32</v>
       </c>
       <c r="E67" t="s">
         <v>108</v>
@@ -2341,17 +2345,17 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B68" t="s">
         <v>109</v>
       </c>
       <c r="C68" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D68" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>8a102873a33f24f7eb22221e6b23c4f718e29f85168ecc769a35bfaed9b12cce</v>
+        <v>82f420005cd31fab6b4ab016a07d623e8f5773de90c526777de5ba91e9be3b4d</v>
       </c>
       <c r="E68" t="s">
         <v>108</v>
@@ -2359,17 +2363,17 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B69" t="s">
         <v>109</v>
       </c>
       <c r="C69" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D69" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>f16ab224bb962910558715c82f58c10c3ed20f153ddfaa199029f141b5b0255c</v>
+        <v>8a102873a33f24f7eb22221e6b23c4f718e29f85168ecc769a35bfaed9b12cce</v>
       </c>
       <c r="E69" t="s">
         <v>108</v>
@@ -2377,17 +2381,17 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B70" t="s">
         <v>109</v>
       </c>
       <c r="C70" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D70" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>8af93bd675e1cfd9ecc850e862819fdac6e3ad1f5d761f970e409c7d9c63bdc3</v>
+        <v>f16ab224bb962910558715c82f58c10c3ed20f153ddfaa199029f141b5b0255c</v>
       </c>
       <c r="E70" t="s">
         <v>108</v>
@@ -2395,17 +2399,17 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B71" t="s">
         <v>109</v>
       </c>
       <c r="C71" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D71" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>604ec12a7d5e6bd8e2ac21cfaff11a5b93719a465919be76f99683d942a87576</v>
+        <v>8af93bd675e1cfd9ecc850e862819fdac6e3ad1f5d761f970e409c7d9c63bdc3</v>
       </c>
       <c r="E71" t="s">
         <v>108</v>
@@ -2413,17 +2417,17 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B72" t="s">
         <v>109</v>
       </c>
       <c r="C72" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D72" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>874706b2b1311a0719b5267f7d1cf803057e367e94ae1ff7bf78c5450d30f5d4</v>
+        <v>604ec12a7d5e6bd8e2ac21cfaff11a5b93719a465919be76f99683d942a87576</v>
       </c>
       <c r="E72" t="s">
         <v>108</v>
@@ -2431,17 +2435,17 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B73" t="s">
         <v>109</v>
       </c>
       <c r="C73" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D73" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>f284353a7cc4d97f6fe20a5155131bd43587a0f1c98a56eeaf52cff72910f47d</v>
+        <v>874706b2b1311a0719b5267f7d1cf803057e367e94ae1ff7bf78c5450d30f5d4</v>
       </c>
       <c r="E73" t="s">
         <v>108</v>
@@ -2449,17 +2453,17 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B74" t="s">
         <v>109</v>
       </c>
       <c r="C74" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D74" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>b13cb5989e08fcb02314209d101e1102f3d299109bdc253b62aa1da21c9e38ba</v>
+        <v>f284353a7cc4d97f6fe20a5155131bd43587a0f1c98a56eeaf52cff72910f47d</v>
       </c>
       <c r="E74" t="s">
         <v>108</v>
@@ -2467,17 +2471,17 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B75" t="s">
         <v>109</v>
       </c>
       <c r="C75" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D75" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>4d9586a075f082a04fd40178499c472012b351db4c1a4d210907a0891f7d8ad9</v>
+        <v>b13cb5989e08fcb02314209d101e1102f3d299109bdc253b62aa1da21c9e38ba</v>
       </c>
       <c r="E75" t="s">
         <v>108</v>
@@ -2485,17 +2489,17 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B76" t="s">
         <v>109</v>
       </c>
       <c r="C76" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D76" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>243f6ee513637db6d897f01b89862f54f29c2cd94a35edaead432e1b334421c9</v>
+        <v>4d9586a075f082a04fd40178499c472012b351db4c1a4d210907a0891f7d8ad9</v>
       </c>
       <c r="E76" t="s">
         <v>108</v>
@@ -2503,53 +2507,53 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>243f6ee513637db6d897f01b89862f54f29c2cd94a35edaead432e1b334421c9</v>
+      </c>
+      <c r="E77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B77" t="s">
-        <v>109</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" t="s">
         <v>168</v>
       </c>
-      <c r="D77" s="7" t="str">
+      <c r="D78" s="7" t="str">
         <f t="shared" si="1"/>
         <v>d482871a5e948cb4884fa0972ea98a81abca057b6bd3f8c995a18c12487e761c</v>
       </c>
-      <c r="E77" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
+      <c r="E78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B78" t="s">
-        <v>54</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B79" t="s">
+        <v>54</v>
+      </c>
+      <c r="C79" t="s">
         <v>107</v>
       </c>
-      <c r="D78" s="7" t="str">
+      <c r="D79" s="7" t="str">
         <f t="shared" si="1"/>
         <v>430f36f9b5f21aae8cc9dca6a81c4d3d84da5175eaedcf2fdc2c226302cb3575</v>
-      </c>
-      <c r="E78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79" t="s">
-        <v>54</v>
-      </c>
-      <c r="C79" t="s">
-        <v>103</v>
-      </c>
-      <c r="D79" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>d5732912d03878a5cd3695dc275a6630fb3c255fa7c0b744ab08897824049327</v>
       </c>
       <c r="E79" t="s">
         <v>108</v>
@@ -2557,17 +2561,17 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B80" t="s">
         <v>54</v>
       </c>
       <c r="C80" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D80" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>5540b2af46570795610626e8d8391356176ca639b1520c4319a2d0c7ba9bef16</v>
+        <v>d5732912d03878a5cd3695dc275a6630fb3c255fa7c0b744ab08897824049327</v>
       </c>
       <c r="E80" t="s">
         <v>108</v>
@@ -2575,17 +2579,17 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B81" t="s">
         <v>54</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>105</v>
+      <c r="C81" t="s">
+        <v>106</v>
       </c>
       <c r="D81" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>56e843a66b2bf7188ac2f4c81df61608843ce144bd5aa66c2df4783fba85e8ef</v>
+        <v>5540b2af46570795610626e8d8391356176ca639b1520c4319a2d0c7ba9bef16</v>
       </c>
       <c r="E81" t="s">
         <v>108</v>
@@ -2593,35 +2597,35 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D82" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>56e843a66b2bf7188ac2f4c81df61608843ce144bd5aa66c2df4783fba85e8ef</v>
+      </c>
+      <c r="E82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B82" t="s">
-        <v>54</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B83" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83" t="s">
         <v>104</v>
       </c>
-      <c r="D82" s="7" t="str">
+      <c r="D83" s="7" t="str">
         <f t="shared" si="1"/>
         <v>c85537acad72f0d7d409dfc1e2d2daa59032f71d29642a8b64b9852f70166fbb</v>
-      </c>
-      <c r="E82" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B83" t="s">
-        <v>54</v>
-      </c>
-      <c r="C83" t="s">
-        <v>102</v>
-      </c>
-      <c r="D83" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>2065aecca0fb9b0567358d352ed5f1ab72fce139bf449b4d09805f5d9c3725ed</v>
       </c>
       <c r="E83" t="s">
         <v>108</v>
@@ -2629,17 +2633,17 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B84" t="s">
         <v>54</v>
       </c>
       <c r="C84" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D84" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>58c27035b7a2e589df397e5d7e05424b90b8c1aaaf73eff47d5ed6daecb70f25</v>
+        <v>2065aecca0fb9b0567358d352ed5f1ab72fce139bf449b4d09805f5d9c3725ed</v>
       </c>
       <c r="E84" t="s">
         <v>108</v>
@@ -2647,17 +2651,17 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B85" t="s">
         <v>54</v>
       </c>
       <c r="C85" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D85" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>3029834a820c79c154c377f52e2719fc3ff2a27600a07ae089ea7fde9087f6bc</v>
+        <v>58c27035b7a2e589df397e5d7e05424b90b8c1aaaf73eff47d5ed6daecb70f25</v>
       </c>
       <c r="E85" t="s">
         <v>108</v>
@@ -2665,17 +2669,17 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B86" t="s">
         <v>54</v>
       </c>
       <c r="C86" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D86" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>ce0343e1d6f489768eeefe022c12181c6a0822e756239851310acf076d23d10c</v>
+        <v>3029834a820c79c154c377f52e2719fc3ff2a27600a07ae089ea7fde9087f6bc</v>
       </c>
       <c r="E86" t="s">
         <v>108</v>
@@ -2683,17 +2687,17 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B87" t="s">
         <v>54</v>
       </c>
       <c r="C87" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D87" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>8ade6740a1d3cfedf81e28d9250929341207b23a55f1be90ccc26cf6d98e052a</v>
+        <v>ce0343e1d6f489768eeefe022c12181c6a0822e756239851310acf076d23d10c</v>
       </c>
       <c r="E87" t="s">
         <v>108</v>
@@ -2701,17 +2705,17 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B88" t="s">
         <v>54</v>
       </c>
       <c r="C88" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D88" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>ebaded49db62a60060caa2577f2a4ec1ff68726bc40861bc65d977abeb64fa7d</v>
+        <v>8ade6740a1d3cfedf81e28d9250929341207b23a55f1be90ccc26cf6d98e052a</v>
       </c>
       <c r="E88" t="s">
         <v>108</v>
@@ -2719,35 +2723,35 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B89" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D89" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>ebaded49db62a60060caa2577f2a4ec1ff68726bc40861bc65d977abeb64fa7d</v>
+      </c>
+      <c r="E89" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B89" t="s">
-        <v>54</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B90" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" t="s">
         <v>96</v>
       </c>
-      <c r="D89" s="7" t="str">
+      <c r="D90" s="7" t="str">
         <f t="shared" si="1"/>
         <v>8aa0f84b5331efcc3cb72c7d504c2bc6ebd861da003d72c33df99ce650d4531d</v>
-      </c>
-      <c r="E89" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B90" t="s">
-        <v>54</v>
-      </c>
-      <c r="C90" t="s">
-        <v>95</v>
-      </c>
-      <c r="D90" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>7bd80d06c01c0340c1b9159b9b4a197db882ca18cbac8e9b9aa025e68f998d40</v>
       </c>
       <c r="E90" t="s">
         <v>108</v>
@@ -2755,17 +2759,17 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B91" t="s">
         <v>54</v>
       </c>
       <c r="C91" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D91" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>4d7b01c2f6043bcee83a33d0f627dc6fbc27dc8aeb5bdd5d863e84304b512ef3</v>
+        <v>7bd80d06c01c0340c1b9159b9b4a197db882ca18cbac8e9b9aa025e68f998d40</v>
       </c>
       <c r="E91" t="s">
         <v>108</v>
@@ -2773,17 +2777,17 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B92" t="s">
         <v>54</v>
       </c>
       <c r="C92" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D92" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>756d7dfac4a35bb57543f677283d6c682e8d704e5350884b27325badd2b3c4a7</v>
+        <v>4d7b01c2f6043bcee83a33d0f627dc6fbc27dc8aeb5bdd5d863e84304b512ef3</v>
       </c>
       <c r="E92" t="s">
         <v>108</v>
@@ -2791,17 +2795,17 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B93" t="s">
         <v>54</v>
       </c>
       <c r="C93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D93" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>cfa69516375e27e56519cae71f28818e0e52515b70e705a600d1db459998335a</v>
+        <v>756d7dfac4a35bb57543f677283d6c682e8d704e5350884b27325badd2b3c4a7</v>
       </c>
       <c r="E93" t="s">
         <v>108</v>
@@ -2809,17 +2813,17 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B94" t="s">
         <v>54</v>
       </c>
       <c r="C94" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D94" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>7baae7dee44c0f5fc953e15dfce6027f639215c50e5c74259022f4ad847f2543</v>
+        <v>cfa69516375e27e56519cae71f28818e0e52515b70e705a600d1db459998335a</v>
       </c>
       <c r="E94" t="s">
         <v>108</v>
@@ -2827,17 +2831,17 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s">
         <v>54</v>
       </c>
       <c r="C95" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D95" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>d34161f2d90f01ef849956871690fe1e8bf15a4edbf7bab0a958bb9cbbe3760b</v>
+        <v>7baae7dee44c0f5fc953e15dfce6027f639215c50e5c74259022f4ad847f2543</v>
       </c>
       <c r="E95" t="s">
         <v>108</v>
@@ -2845,17 +2849,17 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B96" t="s">
         <v>54</v>
       </c>
       <c r="C96" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D96" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>1717ea1fde8ceb7584341a24efc85c853083c660a1185968fbf94520f7193de2</v>
+        <v>d34161f2d90f01ef849956871690fe1e8bf15a4edbf7bab0a958bb9cbbe3760b</v>
       </c>
       <c r="E96" t="s">
         <v>108</v>
@@ -2863,17 +2867,17 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
         <v>54</v>
       </c>
       <c r="C97" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D97" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>9fcc241093405946885039df428cfa7f0051a1f2bdbcc5a313a177a9e35f8806</v>
+        <v>1717ea1fde8ceb7584341a24efc85c853083c660a1185968fbf94520f7193de2</v>
       </c>
       <c r="E97" t="s">
         <v>108</v>
@@ -2881,17 +2885,17 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B98" t="s">
         <v>54</v>
       </c>
       <c r="C98" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D98" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>7c1885ec8620f40a10d045948d3f9f7b8f9c4f7bd2ff1ddfb486a9f27e95e3e3</v>
+        <v>9fcc241093405946885039df428cfa7f0051a1f2bdbcc5a313a177a9e35f8806</v>
       </c>
       <c r="E98" t="s">
         <v>108</v>
@@ -2899,17 +2903,17 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
         <v>54</v>
       </c>
       <c r="C99" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D99" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>54964f8b580ad795a962fb27066715d3281ae1ad13a28bf8aedd5d8859ebae37</v>
+        <v>7c1885ec8620f40a10d045948d3f9f7b8f9c4f7bd2ff1ddfb486a9f27e95e3e3</v>
       </c>
       <c r="E99" t="s">
         <v>108</v>
@@ -2917,17 +2921,17 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B100" t="s">
         <v>54</v>
       </c>
       <c r="C100" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D100" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>9baa10e1c5630c3dcd9bb46bf00913cc94b3855d58c9459ae9848339c566e97b</v>
+        <v>54964f8b580ad795a962fb27066715d3281ae1ad13a28bf8aedd5d8859ebae37</v>
       </c>
       <c r="E100" t="s">
         <v>108</v>
@@ -2935,17 +2939,17 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B101" t="s">
         <v>54</v>
       </c>
       <c r="C101" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D101" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>a57292619d14eb8cbd923bde9f28cf994ac66abc48f7c975b769328ff33bddc9</v>
+        <v>9baa10e1c5630c3dcd9bb46bf00913cc94b3855d58c9459ae9848339c566e97b</v>
       </c>
       <c r="E101" t="s">
         <v>108</v>
@@ -2953,17 +2957,17 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B102" t="s">
         <v>54</v>
       </c>
       <c r="C102" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D102" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0eef76a9583a6c7a1eb764d33fe376bfe1861df79fab82c2c3f5d16183e82016</v>
+        <v>a57292619d14eb8cbd923bde9f28cf994ac66abc48f7c975b769328ff33bddc9</v>
       </c>
       <c r="E102" t="s">
         <v>108</v>
@@ -2971,17 +2975,17 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B103" t="s">
         <v>54</v>
       </c>
       <c r="C103" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D103" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>a7c98da2a0260a5c8ac615cad956b8b220b7a2d73d85364dcf77b63f92e907b3</v>
+        <v>0eef76a9583a6c7a1eb764d33fe376bfe1861df79fab82c2c3f5d16183e82016</v>
       </c>
       <c r="E103" t="s">
         <v>108</v>
@@ -2989,17 +2993,17 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B104" t="s">
         <v>54</v>
       </c>
       <c r="C104" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D104" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>e2107c8ecdb479c36d822d82bda2a8caf4429ab2d2cf9f20d5c931f75275403c</v>
+        <v>a7c98da2a0260a5c8ac615cad956b8b220b7a2d73d85364dcf77b63f92e907b3</v>
       </c>
       <c r="E104" t="s">
         <v>108</v>
@@ -3007,17 +3011,17 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B105" t="s">
         <v>54</v>
       </c>
       <c r="C105" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D105" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>e2ea0a6ca6b984a9405a759d24cf3c51eb3164e5c43e95c3e9a59b316be7b3b9</v>
+        <v>e2107c8ecdb479c36d822d82bda2a8caf4429ab2d2cf9f20d5c931f75275403c</v>
       </c>
       <c r="E105" t="s">
         <v>108</v>
@@ -3025,17 +3029,17 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B106" t="s">
         <v>54</v>
       </c>
       <c r="C106" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D106" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>3613c89747be4a2d5dc17f442d0a482da665784e2e5a3931fb9a1fc38fa0fa8d</v>
+        <v>e2ea0a6ca6b984a9405a759d24cf3c51eb3164e5c43e95c3e9a59b316be7b3b9</v>
       </c>
       <c r="E106" t="s">
         <v>108</v>
@@ -3043,17 +3047,17 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B107" t="s">
         <v>54</v>
       </c>
       <c r="C107" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D107" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>b31cd094af7950b3a461dc78161fd2faf01faa9d0ed8c1c072790f83ab26d482</v>
+        <v>3613c89747be4a2d5dc17f442d0a482da665784e2e5a3931fb9a1fc38fa0fa8d</v>
       </c>
       <c r="E107" t="s">
         <v>108</v>
@@ -3061,17 +3065,17 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B108" t="s">
         <v>54</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>77</v>
+      <c r="C108" t="s">
+        <v>78</v>
       </c>
       <c r="D108" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0e3303a3a0cec95ebc8c3cc3e19fc71c99487faa286b05d01a3eb8cca4d90bc7</v>
+        <v>b31cd094af7950b3a461dc78161fd2faf01faa9d0ed8c1c072790f83ab26d482</v>
       </c>
       <c r="E108" t="s">
         <v>108</v>
@@ -3079,17 +3083,17 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B109" t="s">
         <v>54</v>
       </c>
-      <c r="C109" t="s">
-        <v>76</v>
+      <c r="C109" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="D109" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>95c023c80dfe0d30304c58244878995061f87801a66daa5d6bf4f2512be0e6f9</v>
+        <v>0e3303a3a0cec95ebc8c3cc3e19fc71c99487faa286b05d01a3eb8cca4d90bc7</v>
       </c>
       <c r="E109" t="s">
         <v>108</v>
@@ -3097,17 +3101,17 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B110" t="s">
         <v>54</v>
       </c>
       <c r="C110" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D110" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>9edc9f813781eca2aad6de78ef85cdbe92ee32bb0a56791be4da0fa7b472c1d8</v>
+        <v>95c023c80dfe0d30304c58244878995061f87801a66daa5d6bf4f2512be0e6f9</v>
       </c>
       <c r="E110" t="s">
         <v>108</v>
@@ -3115,17 +3119,17 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B111" t="s">
         <v>54</v>
       </c>
       <c r="C111" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D111" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>882927b9aadb2504b5c6a823bd8c8c516f21dec6e441fe2c8fa228e35951bcc8</v>
+        <v>9edc9f813781eca2aad6de78ef85cdbe92ee32bb0a56791be4da0fa7b472c1d8</v>
       </c>
       <c r="E111" t="s">
         <v>108</v>
@@ -3133,17 +3137,17 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B112" t="s">
         <v>54</v>
       </c>
       <c r="C112" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D112" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>233a5d16bee5a64bf3bc19abe3cc812a1e0619435f01c163f628773a469ff719</v>
+        <v>882927b9aadb2504b5c6a823bd8c8c516f21dec6e441fe2c8fa228e35951bcc8</v>
       </c>
       <c r="E112" t="s">
         <v>108</v>
@@ -3151,17 +3155,17 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B113" t="s">
         <v>54</v>
       </c>
       <c r="C113" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D113" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>04175a2929f4d72b7cfc63be13103632e200ddb741c999cab76bed7775fd547d</v>
+        <v>233a5d16bee5a64bf3bc19abe3cc812a1e0619435f01c163f628773a469ff719</v>
       </c>
       <c r="E113" t="s">
         <v>108</v>
@@ -3169,17 +3173,17 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B114" t="s">
         <v>54</v>
       </c>
       <c r="C114" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D114" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>5c44ebfc4b86e80fad397c5fb99fc35a0a97bbf6793dd295b224e46ea9bf2393</v>
+        <v>04175a2929f4d72b7cfc63be13103632e200ddb741c999cab76bed7775fd547d</v>
       </c>
       <c r="E114" t="s">
         <v>108</v>
@@ -3187,17 +3191,17 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B115" t="s">
         <v>54</v>
       </c>
       <c r="C115" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D115" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>3cc5c121471323b25de45fcab48631d4a09c78e76af21c10d747352682605587</v>
+        <v>5c44ebfc4b86e80fad397c5fb99fc35a0a97bbf6793dd295b224e46ea9bf2393</v>
       </c>
       <c r="E115" t="s">
         <v>108</v>
@@ -3205,17 +3209,17 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B116" t="s">
         <v>54</v>
       </c>
       <c r="C116" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D116" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>7b038f185fdf7611317c5714ff7ccfe83e768d2c5e6e80df8659210160321c37</v>
+        <v>3cc5c121471323b25de45fcab48631d4a09c78e76af21c10d747352682605587</v>
       </c>
       <c r="E116" t="s">
         <v>108</v>
@@ -3223,17 +3227,17 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B117" t="s">
         <v>54</v>
       </c>
       <c r="C117" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D117" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>94624d40721f1c352b2fecc802295da4d3083192fb2d7a1049b3aee26d8fdb7c</v>
+        <v>7b038f185fdf7611317c5714ff7ccfe83e768d2c5e6e80df8659210160321c37</v>
       </c>
       <c r="E117" t="s">
         <v>108</v>
@@ -3241,17 +3245,17 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B118" t="s">
         <v>54</v>
       </c>
       <c r="C118" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D118" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>d977fc32dd4bdb0479604abf078f1045b0e922666313f2f42cd71ce7835e0061</v>
+        <v>94624d40721f1c352b2fecc802295da4d3083192fb2d7a1049b3aee26d8fdb7c</v>
       </c>
       <c r="E118" t="s">
         <v>108</v>
@@ -3259,17 +3263,17 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B119" t="s">
         <v>54</v>
       </c>
       <c r="C119" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D119" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>717d8d9b9802ac9fd75cc287c0624f37f9306c470c5a6da05abe9659d790e7cc</v>
+        <v>d977fc32dd4bdb0479604abf078f1045b0e922666313f2f42cd71ce7835e0061</v>
       </c>
       <c r="E119" t="s">
         <v>108</v>
@@ -3277,17 +3281,17 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B120" t="s">
         <v>54</v>
       </c>
       <c r="C120" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D120" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>43b98f6d029d12c6a1623302b2d03b70799099641200965c006582d82d341b85</v>
+        <v>717d8d9b9802ac9fd75cc287c0624f37f9306c470c5a6da05abe9659d790e7cc</v>
       </c>
       <c r="E120" t="s">
         <v>108</v>
@@ -3295,17 +3299,17 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B121" t="s">
         <v>54</v>
       </c>
       <c r="C121" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D121" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>e95be8c2affede53b586a32b2863aaa01870f120981367b2cf958951df2fdc67</v>
+        <v>43b98f6d029d12c6a1623302b2d03b70799099641200965c006582d82d341b85</v>
       </c>
       <c r="E121" t="s">
         <v>108</v>
@@ -3313,17 +3317,17 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B122" t="s">
         <v>54</v>
       </c>
       <c r="C122" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D122" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>f00531f499c731c6985d4a460cced2fee38bda891d4820ce959dae7d78834812</v>
+        <v>e95be8c2affede53b586a32b2863aaa01870f120981367b2cf958951df2fdc67</v>
       </c>
       <c r="E122" t="s">
         <v>108</v>
@@ -3331,7 +3335,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B123" t="s">
         <v>54</v>
@@ -3349,17 +3353,17 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B124" t="s">
         <v>54</v>
       </c>
       <c r="C124" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D124" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>8be4bfe64c6e8c2c85f6a31e6a8b44bb7417dc9835873a83dfa4b0b8fa5c0f5e</v>
+        <v>f00531f499c731c6985d4a460cced2fee38bda891d4820ce959dae7d78834812</v>
       </c>
       <c r="E124" t="s">
         <v>108</v>
@@ -3367,17 +3371,17 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B125" t="s">
         <v>54</v>
       </c>
       <c r="C125" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D125" s="7" t="str">
-        <f t="shared" ref="D125:D175" si="2">LOWER(C125)</f>
-        <v>ebfead106f7529d2c976f6100d1223726cec07837f410f76026953b419d20944</v>
+        <f t="shared" si="1"/>
+        <v>8be4bfe64c6e8c2c85f6a31e6a8b44bb7417dc9835873a83dfa4b0b8fa5c0f5e</v>
       </c>
       <c r="E125" t="s">
         <v>108</v>
@@ -3385,17 +3389,17 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B126" t="s">
         <v>54</v>
       </c>
       <c r="C126" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D126" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>582fd438f0901d64d06c63255d4d7dd8ac2a21767d5da7b51617da8c6851323e</v>
+        <f t="shared" ref="D126:D176" si="2">LOWER(C126)</f>
+        <v>ebfead106f7529d2c976f6100d1223726cec07837f410f76026953b419d20944</v>
       </c>
       <c r="E126" t="s">
         <v>108</v>
@@ -3403,17 +3407,17 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B127" t="s">
         <v>54</v>
       </c>
       <c r="C127" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D127" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>a1efd8aad160c17fd9afe1aca8e93bef444692988af58852dccdb1942fe3abb8</v>
+        <v>582fd438f0901d64d06c63255d4d7dd8ac2a21767d5da7b51617da8c6851323e</v>
       </c>
       <c r="E127" t="s">
         <v>108</v>
@@ -3421,17 +3425,17 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B128" t="s">
         <v>54</v>
       </c>
       <c r="C128" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D128" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>b83a31e6bb8c91e113e18f899091e941dc21bfa4e4bcdbde133f2bee0aef4051</v>
+        <v>a1efd8aad160c17fd9afe1aca8e93bef444692988af58852dccdb1942fe3abb8</v>
       </c>
       <c r="E128" t="s">
         <v>108</v>
@@ -3439,17 +3443,17 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B129" t="s">
         <v>54</v>
       </c>
       <c r="C129" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D129" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>16d5d701bb80202ab68da7ccd88421a94818c42588cc6cf3a984129492d8dffc</v>
+        <v>b83a31e6bb8c91e113e18f899091e941dc21bfa4e4bcdbde133f2bee0aef4051</v>
       </c>
       <c r="E129" t="s">
         <v>108</v>
@@ -3457,17 +3461,17 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B130" t="s">
         <v>54</v>
       </c>
       <c r="C130" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D130" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>ec5129f542849aa777ee6054326a39b92b4dff3036c2055ffbf5f0249a6515e3</v>
+        <v>16d5d701bb80202ab68da7ccd88421a94818c42588cc6cf3a984129492d8dffc</v>
       </c>
       <c r="E130" t="s">
         <v>108</v>
@@ -3475,53 +3479,53 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B131" t="s">
+        <v>54</v>
+      </c>
+      <c r="C131" t="s">
+        <v>56</v>
+      </c>
+      <c r="D131" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>ec5129f542849aa777ee6054326a39b92b4dff3036c2055ffbf5f0249a6515e3</v>
+      </c>
+      <c r="E131" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B131" t="s">
-        <v>54</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="B132" t="s">
+        <v>54</v>
+      </c>
+      <c r="C132" t="s">
         <v>55</v>
       </c>
-      <c r="D131" s="7" t="str">
+      <c r="D132" s="7" t="str">
         <f t="shared" si="2"/>
         <v>826c64c13cb636dc1596b19f78f11fc8aefd8792f00aa8151abb4b22528e73d7</v>
       </c>
-      <c r="E131" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="3" t="s">
+      <c r="E132" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B132" t="s">
-        <v>109</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="B133" t="s">
+        <v>109</v>
+      </c>
+      <c r="C133" t="s">
         <v>142</v>
       </c>
-      <c r="D132" s="7" t="str">
+      <c r="D133" s="7" t="str">
         <f t="shared" si="2"/>
         <v>668b046d12db350ccba6728890476b3efee53b2f42dbb84743e5e9f1ae0cc404</v>
-      </c>
-      <c r="E132" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B133" t="s">
-        <v>109</v>
-      </c>
-      <c r="C133" t="s">
-        <v>143</v>
-      </c>
-      <c r="D133" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>69a3831c082fc105b56c53865cc797fa90b83d920fb2f9f6875b00ad83a18174</v>
       </c>
       <c r="E133" t="s">
         <v>108</v>
@@ -3529,17 +3533,17 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B134" t="s">
         <v>109</v>
       </c>
       <c r="C134" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D134" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>95914789b5f3307a3718679e867d61b9d4c03f749cd2e2970570331d7d6c8ed9</v>
+        <v>69a3831c082fc105b56c53865cc797fa90b83d920fb2f9f6875b00ad83a18174</v>
       </c>
       <c r="E134" t="s">
         <v>108</v>
@@ -3547,17 +3551,17 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B135" t="s">
         <v>109</v>
       </c>
       <c r="C135" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D135" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>2359d383bf2d4ab65ebf7923bdf74ce40e4093f6e58251b395a64034b3c39772</v>
+        <v>95914789b5f3307a3718679e867d61b9d4c03f749cd2e2970570331d7d6c8ed9</v>
       </c>
       <c r="E135" t="s">
         <v>108</v>
@@ -3565,35 +3569,35 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" t="s">
+        <v>109</v>
+      </c>
+      <c r="C136" t="s">
+        <v>145</v>
+      </c>
+      <c r="D136" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>2359d383bf2d4ab65ebf7923bdf74ce40e4093f6e58251b395a64034b3c39772</v>
+      </c>
+      <c r="E136" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B136" t="s">
-        <v>109</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="B137" t="s">
+        <v>109</v>
+      </c>
+      <c r="C137" t="s">
         <v>146</v>
       </c>
-      <c r="D136" s="7" t="str">
+      <c r="D137" s="7" t="str">
         <f t="shared" si="2"/>
         <v>5f1ab65fe2ad6b381a1ae036716475bf78c9b2e309528cf22170c1ddeefddcbf</v>
-      </c>
-      <c r="E136" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B137" t="s">
-        <v>109</v>
-      </c>
-      <c r="C137" t="s">
-        <v>147</v>
-      </c>
-      <c r="D137" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>ecb916133a9376911f10bc5c659952eb0031e457f5df367cde560edbfba38fb8</v>
       </c>
       <c r="E137" t="s">
         <v>108</v>
@@ -3601,17 +3605,17 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B138" t="s">
         <v>109</v>
       </c>
       <c r="C138" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D138" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>2ecd295d295bec062cedebe177e54b9d6b19fc0a841dc5c178c654c9ccff09c0</v>
+        <v>ecb916133a9376911f10bc5c659952eb0031e457f5df367cde560edbfba38fb8</v>
       </c>
       <c r="E138" t="s">
         <v>108</v>
@@ -3619,17 +3623,17 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B139" t="s">
         <v>109</v>
       </c>
       <c r="C139" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D139" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>540bc6dec1dd4b92ea4d3fb903f69eabf6d919afd48f4e312b163c28cff0f441</v>
+        <v>2ecd295d295bec062cedebe177e54b9d6b19fc0a841dc5c178c654c9ccff09c0</v>
       </c>
       <c r="E139" t="s">
         <v>108</v>
@@ -3637,17 +3641,17 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B140" t="s">
         <v>109</v>
       </c>
       <c r="C140" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D140" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>b294e973896f8f874e90a8eb1a8908ac790980d034c4c4bdf0fc3d37b8abf682</v>
+        <v>540bc6dec1dd4b92ea4d3fb903f69eabf6d919afd48f4e312b163c28cff0f441</v>
       </c>
       <c r="E140" t="s">
         <v>108</v>
@@ -3655,17 +3659,17 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B141" t="s">
         <v>109</v>
       </c>
       <c r="C141" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D141" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0ba081f546084bd5097aa8a73c75931d5aa1fc4d6e846e53c21f98e6a1509988</v>
+        <v>b294e973896f8f874e90a8eb1a8908ac790980d034c4c4bdf0fc3d37b8abf682</v>
       </c>
       <c r="E141" t="s">
         <v>108</v>
@@ -3673,17 +3677,17 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B142" t="s">
         <v>109</v>
       </c>
       <c r="C142" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D142" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>4837f7e1f1565ff667528cd75c41f401e07e229de1bd1b232f0a7a40d4c46f79</v>
+        <v>0ba081f546084bd5097aa8a73c75931d5aa1fc4d6e846e53c21f98e6a1509988</v>
       </c>
       <c r="E142" t="s">
         <v>108</v>
@@ -3691,35 +3695,35 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B143" t="s">
+        <v>109</v>
+      </c>
+      <c r="C143" t="s">
+        <v>152</v>
+      </c>
+      <c r="D143" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>4837f7e1f1565ff667528cd75c41f401e07e229de1bd1b232f0a7a40d4c46f79</v>
+      </c>
+      <c r="E143" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B143" t="s">
-        <v>109</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="B144" t="s">
+        <v>109</v>
+      </c>
+      <c r="C144" t="s">
         <v>153</v>
       </c>
-      <c r="D143" s="7" t="str">
+      <c r="D144" s="7" t="str">
         <f t="shared" si="2"/>
         <v>dbe2f39d679680bec02757226881b9ac53fb18a7a6cf397e2bbe6d4724c1c8e1</v>
-      </c>
-      <c r="E143" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B144" t="s">
-        <v>109</v>
-      </c>
-      <c r="C144" t="s">
-        <v>141</v>
-      </c>
-      <c r="D144" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>c12f6098e641aaca96c60215800f18f5671039aecf812217fab3c0d152f6adb4</v>
       </c>
       <c r="E144" t="s">
         <v>108</v>
@@ -3727,17 +3731,17 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B145" t="s">
         <v>109</v>
       </c>
       <c r="C145" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D145" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>7fa0d5c3f538c76f878e012ac390597faecaabfe6fb9d459b919258e76c5df8e</v>
+        <v>c12f6098e641aaca96c60215800f18f5671039aecf812217fab3c0d152f6adb4</v>
       </c>
       <c r="E145" t="s">
         <v>108</v>
@@ -3745,17 +3749,17 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B146" t="s">
         <v>109</v>
       </c>
       <c r="C146" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D146" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>61c6caebd23921741fb5ffe6603f16634fca9840c2bf56ac8201e9264d6daccf</v>
+        <v>7fa0d5c3f538c76f878e012ac390597faecaabfe6fb9d459b919258e76c5df8e</v>
       </c>
       <c r="E146" t="s">
         <v>108</v>
@@ -3763,17 +3767,17 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B147" t="s">
         <v>109</v>
       </c>
       <c r="C147" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D147" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>f554d2f09272c6f71447ebfe4532d3b1dd1959bce669f9a5ccc99e64ef511729</v>
+        <v>61c6caebd23921741fb5ffe6603f16634fca9840c2bf56ac8201e9264d6daccf</v>
       </c>
       <c r="E147" t="s">
         <v>108</v>
@@ -3781,17 +3785,17 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B148" t="s">
         <v>109</v>
       </c>
       <c r="C148" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D148" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>fc184f96dd18794e204c41075a00923be7e8e568744231d74f2fdf8921f78d29</v>
+        <v>f554d2f09272c6f71447ebfe4532d3b1dd1959bce669f9a5ccc99e64ef511729</v>
       </c>
       <c r="E148" t="s">
         <v>108</v>
@@ -3799,17 +3803,17 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B149" t="s">
         <v>109</v>
       </c>
       <c r="C149" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D149" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>8c574e0a06396dfa7064b8b460e0e4a8d5d0748c4aa66eb2e4efdfcb46da4b31</v>
+        <v>fc184f96dd18794e204c41075a00923be7e8e568744231d74f2fdf8921f78d29</v>
       </c>
       <c r="E149" t="s">
         <v>108</v>
@@ -3817,17 +3821,17 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B150" t="s">
         <v>109</v>
       </c>
       <c r="C150" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D150" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>47b68dce8cb6805ad5b3ea4d27af92a241f4e29a5c12a274c852e4346a0500b4</v>
+        <v>8c574e0a06396dfa7064b8b460e0e4a8d5d0748c4aa66eb2e4efdfcb46da4b31</v>
       </c>
       <c r="E150" t="s">
         <v>108</v>
@@ -3835,17 +3839,17 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B151" t="s">
         <v>109</v>
       </c>
       <c r="C151" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D151" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>88171413fc76dda23ab32baa17b11e4fff89141c633ece737852445f1ba6c1bd</v>
+        <v>47b68dce8cb6805ad5b3ea4d27af92a241f4e29a5c12a274c852e4346a0500b4</v>
       </c>
       <c r="E151" t="s">
         <v>108</v>
@@ -3853,17 +3857,17 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B152" t="s">
         <v>109</v>
       </c>
       <c r="C152" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D152" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>ff4e4975ef403004f8fe8e59008db7ad47f54b10d84c72eb90e728d1ec9157ce</v>
+        <v>88171413fc76dda23ab32baa17b11e4fff89141c633ece737852445f1ba6c1bd</v>
       </c>
       <c r="E152" t="s">
         <v>108</v>
@@ -3871,17 +3875,17 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B153" t="s">
         <v>109</v>
       </c>
       <c r="C153" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D153" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>951d6bae39eb172f57a88bd686f7a921cf060fd21f59648f0d20b6a8f98fc5a5</v>
+        <v>ff4e4975ef403004f8fe8e59008db7ad47f54b10d84c72eb90e728d1ec9157ce</v>
       </c>
       <c r="E153" t="s">
         <v>108</v>
@@ -3889,17 +3893,17 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B154" t="s">
         <v>109</v>
       </c>
       <c r="C154" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D154" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>d3f3779f5113da6da957c4d81481146a272c31aefe0d3e4b64414fd686fd9744</v>
+        <v>951d6bae39eb172f57a88bd686f7a921cf060fd21f59648f0d20b6a8f98fc5a5</v>
       </c>
       <c r="E154" t="s">
         <v>108</v>
@@ -3907,17 +3911,17 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B155" t="s">
         <v>109</v>
       </c>
       <c r="C155" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D155" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>d16d07a0353405fcec95f7efc50a2621bc7425f9a5e8895078396fb0dc460c4f</v>
+        <v>d3f3779f5113da6da957c4d81481146a272c31aefe0d3e4b64414fd686fd9744</v>
       </c>
       <c r="E155" t="s">
         <v>108</v>
@@ -3925,17 +3929,17 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B156" t="s">
         <v>109</v>
       </c>
       <c r="C156" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D156" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>c784376960f3163dc760bc019e72e5fed78203745a5510c69992a39d1d8fe776</v>
+        <v>d16d07a0353405fcec95f7efc50a2621bc7425f9a5e8895078396fb0dc460c4f</v>
       </c>
       <c r="E156" t="s">
         <v>108</v>
@@ -3943,17 +3947,17 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B157" t="s">
         <v>109</v>
       </c>
       <c r="C157" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D157" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>e58da58b314ccdeefa3c4865b4b8aa3153e890d7904e04483481d8fff2c27eaa</v>
+        <v>c784376960f3163dc760bc019e72e5fed78203745a5510c69992a39d1d8fe776</v>
       </c>
       <c r="E157" t="s">
         <v>108</v>
@@ -3961,17 +3965,17 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B158" t="s">
         <v>109</v>
       </c>
       <c r="C158" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D158" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>8f0a19ee8c606b35a10904951e0a27da1896eafe33c6e88cb7bcbe455f05a24a</v>
+        <v>e58da58b314ccdeefa3c4865b4b8aa3153e890d7904e04483481d8fff2c27eaa</v>
       </c>
       <c r="E158" t="s">
         <v>108</v>
@@ -3979,17 +3983,17 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B159" t="s">
         <v>109</v>
       </c>
       <c r="C159" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D159" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>764b9e9f3ad386aaa5cdeae9368353994de61c0bede087c8f7e3579cb443de3b</v>
+        <v>8f0a19ee8c606b35a10904951e0a27da1896eafe33c6e88cb7bcbe455f05a24a</v>
       </c>
       <c r="E159" t="s">
         <v>108</v>
@@ -3997,17 +4001,17 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B160" t="s">
         <v>109</v>
       </c>
       <c r="C160" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D160" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>229278f6a9c1c27fc55bec50f06548fe64c2629f59f462d50cac28e65bb93a83</v>
+        <v>764b9e9f3ad386aaa5cdeae9368353994de61c0bede087c8f7e3579cb443de3b</v>
       </c>
       <c r="E160" t="s">
         <v>108</v>
@@ -4015,17 +4019,17 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B161" t="s">
         <v>109</v>
       </c>
       <c r="C161" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D161" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>517364f2d45162fb5037437b5b6cb953d00d9b2b3b79ba87d9fe57ea6ee6070c</v>
+        <v>229278f6a9c1c27fc55bec50f06548fe64c2629f59f462d50cac28e65bb93a83</v>
       </c>
       <c r="E161" t="s">
         <v>108</v>
@@ -4033,17 +4037,17 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B162" t="s">
         <v>109</v>
       </c>
       <c r="C162" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D162" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>f800b399e5c7a5254fc66bb407117fe38dbde0528780e68c9f7c87d299f8486a</v>
+        <v>517364f2d45162fb5037437b5b6cb953d00d9b2b3b79ba87d9fe57ea6ee6070c</v>
       </c>
       <c r="E162" t="s">
         <v>108</v>
@@ -4051,17 +4055,17 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B163" t="s">
         <v>109</v>
       </c>
       <c r="C163" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D163" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>e23a2a4e2d7c2b41ebcdd8ffc0679df7140eb7f52e1eebabf827a88182643c59</v>
+        <v>f800b399e5c7a5254fc66bb407117fe38dbde0528780e68c9f7c87d299f8486a</v>
       </c>
       <c r="E163" t="s">
         <v>108</v>
@@ -4069,17 +4073,17 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B164" t="s">
         <v>109</v>
       </c>
       <c r="C164" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D164" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>2cec78f739fbddfed852cd7934d2530e7cc4c8f14b38673b03ba5fb880ad4cc7</v>
+        <v>e23a2a4e2d7c2b41ebcdd8ffc0679df7140eb7f52e1eebabf827a88182643c59</v>
       </c>
       <c r="E164" t="s">
         <v>108</v>
@@ -4087,17 +4091,17 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B165" t="s">
         <v>109</v>
       </c>
       <c r="C165" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D165" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>89abaf1e2471b00525b0694048e179c0f39a2674e3bcb34460ea6bc4801882be</v>
+        <v>2cec78f739fbddfed852cd7934d2530e7cc4c8f14b38673b03ba5fb880ad4cc7</v>
       </c>
       <c r="E165" t="s">
         <v>108</v>
@@ -4105,17 +4109,17 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B166" t="s">
         <v>109</v>
       </c>
       <c r="C166" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D166" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>c8370a2d050359e9d505acc411e6f457a49b21360a21e6cbc9229bad3a767899</v>
+        <v>89abaf1e2471b00525b0694048e179c0f39a2674e3bcb34460ea6bc4801882be</v>
       </c>
       <c r="E166" t="s">
         <v>108</v>
@@ -4123,17 +4127,17 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B167" t="s">
         <v>109</v>
       </c>
       <c r="C167" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D167" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>17ec1f16efac893b9bd89bba5f13cb1e0bf938bdc9cece6cae3ed77f18fa6fd7</v>
+        <v>c8370a2d050359e9d505acc411e6f457a49b21360a21e6cbc9229bad3a767899</v>
       </c>
       <c r="E167" t="s">
         <v>108</v>
@@ -4141,17 +4145,17 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B168" t="s">
         <v>109</v>
       </c>
       <c r="C168" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D168" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>900191a443115d8b48a9d68d3062e8b3d7129727951b8617465b485baf253006</v>
+        <v>17ec1f16efac893b9bd89bba5f13cb1e0bf938bdc9cece6cae3ed77f18fa6fd7</v>
       </c>
       <c r="E168" t="s">
         <v>108</v>
@@ -4159,17 +4163,17 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B169" t="s">
         <v>109</v>
       </c>
       <c r="C169" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D169" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>d548530775a6286f49ba66e0715876b4ec5985966b0291c21568fecfc4178e8d</v>
+        <v>900191a443115d8b48a9d68d3062e8b3d7129727951b8617465b485baf253006</v>
       </c>
       <c r="E169" t="s">
         <v>108</v>
@@ -4177,17 +4181,17 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B170" t="s">
         <v>109</v>
       </c>
       <c r="C170" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D170" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>dba3ed2e85be82c9109419d15f948eaf3832fffce09376d8665e29105c28e9c6</v>
+        <v>d548530775a6286f49ba66e0715876b4ec5985966b0291c21568fecfc4178e8d</v>
       </c>
       <c r="E170" t="s">
         <v>108</v>
@@ -4195,17 +4199,17 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B171" t="s">
         <v>109</v>
       </c>
       <c r="C171" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D171" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>99f3c010ca75e5169317a43115178e9f96b1e4ac31470e5508437d4e7b46747a</v>
+        <v>dba3ed2e85be82c9109419d15f948eaf3832fffce09376d8665e29105c28e9c6</v>
       </c>
       <c r="E171" t="s">
         <v>108</v>
@@ -4213,17 +4217,17 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B172" t="s">
         <v>109</v>
       </c>
       <c r="C172" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D172" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>f1c4a0a7b5dead231fc9b42f06965a036ab7a2a788768847eb81e1528d6402ad</v>
+        <v>99f3c010ca75e5169317a43115178e9f96b1e4ac31470e5508437d4e7b46747a</v>
       </c>
       <c r="E172" t="s">
         <v>108</v>
@@ -4231,17 +4235,17 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B173" t="s">
         <v>109</v>
       </c>
       <c r="C173" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D173" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>d3d0ff1c55ef3ac8aa1fbea3e61d550f3950a6729e03fcbfc1c3ef15241ba84e</v>
+        <v>f1c4a0a7b5dead231fc9b42f06965a036ab7a2a788768847eb81e1528d6402ad</v>
       </c>
       <c r="E173" t="s">
         <v>108</v>
@@ -4249,17 +4253,17 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B174" t="s">
         <v>109</v>
       </c>
       <c r="C174" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D174" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>18ab106814b6251057c7b739d818b43887b443c42b8f488a052aeeaa4cea6b1f</v>
+        <v>d3d0ff1c55ef3ac8aa1fbea3e61d550f3950a6729e03fcbfc1c3ef15241ba84e</v>
       </c>
       <c r="E174" t="s">
         <v>108</v>
@@ -4267,24 +4271,39 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B175" t="s">
+        <v>109</v>
+      </c>
+      <c r="C175" t="s">
+        <v>111</v>
+      </c>
+      <c r="D175" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>18ab106814b6251057c7b739d818b43887b443c42b8f488a052aeeaa4cea6b1f</v>
+      </c>
+      <c r="E175" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B175" t="s">
-        <v>109</v>
-      </c>
-      <c r="C175" t="s">
+      <c r="B176" t="s">
+        <v>109</v>
+      </c>
+      <c r="C176" t="s">
         <v>110</v>
       </c>
-      <c r="D175" s="7" t="str">
+      <c r="D176" s="7" t="str">
         <f t="shared" si="2"/>
         <v>100e1a173a6113218ffb49e13a14778fa3b91ff7fcd9fac5c523baedb0f1b7fb</v>
       </c>
-      <c r="E175" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" s="1"/>
+      <c r="E176" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
@@ -4397,8 +4416,8 @@
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" s="1"/>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="1"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
@@ -4432,6 +4451,9 @@
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
